--- a/src/test/resources/cases_v7.xlsx
+++ b/src/test/resources/cases_v7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="20">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -384,6 +384,24 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"400000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"420000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>[{"columnLablesAndValues":{},"no":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"columnLablesAndValues":{},"no":"1"},{"columnLablesAndValues":{},"no":"2"}]</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"430000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"440000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"450000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2040,7 @@
         <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>77</v>

--- a/src/test/resources/cases_v7.xlsx
+++ b/src/test/resources/cases_v7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="21">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"450000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"490000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2043,7 @@
         <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>77</v>

--- a/src/test/resources/cases_v7.xlsx
+++ b/src/test/resources/cases_v7.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="9405" windowWidth="22935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
-    <sheet name="用例" r:id="rId2" sheetId="2"/>
+    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="D1:H16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -344,64 +343,10 @@
 {"no":"2","sql":"select count(*) as totalNum from financelog where IncomeMemberId = (select id from member where mobilephone='18813989449')"}]</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"380000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"390000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>[{"columnLablesAndValues":{"totalNum":"1"},"no":"1"}]</t>
   </si>
   <si>
     <t>[{"columnLablesAndValues":{"leaveamount":"10290880.55"},"no":"1"},{"columnLablesAndValues":{"totalNum":"2"},"no":"2"}]</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"400000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"420000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>[{"columnLablesAndValues":{},"no":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"columnLablesAndValues":{},"no":"1"},{"columnLablesAndValues":{},"no":"2"}]</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"430000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"440000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"450000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"490000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
@@ -410,14 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,142 +381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -588,202 +391,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -791,347 +414,68 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="18" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="32" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1140,10 +484,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1301,7 +645,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1310,13 +654,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1326,7 +670,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1335,7 +679,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1344,7 +688,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1354,12 +698,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1390,7 +734,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1409,7 +753,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1421,23 +765,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.2166666666667" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.1083333333333" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="77.2166666666667" collapsed="true"/>
+    <col min="1" max="1" width="19.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1465,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1479,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1493,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1507,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1521,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1535,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1549,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1563,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1577,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1591,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1605,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1619,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1634,38 +977,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId1" ref="D4"/>
-    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId2" ref="D5"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.3333333333333" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.1083333333333" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="57.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="79.1083333333333" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="91.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.6666666666667" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.8833333333333" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.2166666666667" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="79.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="91" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="2" spans="1:4">
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1707,11 +1049,8 @@
       <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1724,11 +1063,8 @@
       <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1741,11 +1077,8 @@
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1758,11 +1091,8 @@
       <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="40.5" r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1775,23 +1105,20 @@
       <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1804,11 +1131,8 @@
       <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1821,11 +1145,8 @@
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1838,11 +1159,8 @@
       <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1855,11 +1173,8 @@
       <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1872,11 +1187,8 @@
       <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1889,11 +1201,8 @@
       <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1906,11 +1215,8 @@
       <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1923,11 +1229,8 @@
       <c r="D14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1940,11 +1243,8 @@
       <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1957,11 +1257,8 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1974,11 +1271,8 @@
       <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1991,11 +1285,8 @@
       <c r="D18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2008,11 +1299,8 @@
       <c r="D19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2025,11 +1313,8 @@
       <c r="D20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row ht="108" r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2043,24 +1328,24 @@
         <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>